--- a/biology/Médecine/CIM-10_Chapitre_05___Troubles_mentaux_et_du_comportement/CIM-10_Chapitre_05___Troubles_mentaux_et_du_comportement.xlsx
+++ b/biology/Médecine/CIM-10_Chapitre_05___Troubles_mentaux_et_du_comportement/CIM-10_Chapitre_05___Troubles_mentaux_et_du_comportement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article développe le Chapitre 05 : Troubles mentaux et du comportement (F00-F99) de la classification internationale des maladies (CIM-10) publié par l'Organisation mondiale de la santé (OMS).
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">(F00-F09) Troubles mentaux organiques, y compris les troubles symptomatiques
-(F00) Démence de la maladie d'Alzheimer
+          <t>(F00-F09) Troubles mentaux organiques, y compris les troubles symptomatiques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(F00) Démence de la maladie d'Alzheimer
 (F00.0) Démence de la maladie d'Alzheimer, à début précoce
 (F00.1) Démence de la maladie d'Alzheimer, à début tardif
 (F00.2) Démence de la maladie d'Alzheimer, forme atypique ou mixte
@@ -557,9 +574,43 @@
 (F07.2) Syndrome post-commotionnel
 (F07.8) Autres troubles organiques de la personnalité et du comportement dus à une affection, une lésion et un dysfonctionnement cérébraux
 (F07.9) Trouble organique de la personnalité et du comportement dû à une affection, une lésion et un dysfonctionnement cérébraux, sans précision
-(F09) Trouble mental organique ou symptomatique, sans précision
-(F10-F19) Troubles mentaux et du comportement liés à l'utilisation de substances psycho-actives
-(F10.-) Troubles mentaux et du comportement liés à l'utilisation d'alcool
+(F09) Trouble mental organique ou symptomatique, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_05_:_Troubles_mentaux_et_du_comportement</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_05_:_Troubles_mentaux_et_du_comportement</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(F10-F19) Troubles mentaux et du comportement liés à l'utilisation de substances psycho-actives</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(F10.-) Troubles mentaux et du comportement liés à l'utilisation d'alcool
 (F11.-) Troubles mentaux et du comportement liés à l'utilisation d'opiacés
 (F12.-) Troubles mentaux et du comportement liés à l'utilisation de dérivés du cannabis
 (F13.-) Troubles mentaux et du comportement liés à l'utilisation de sédatifs ou d'hypnotiques
@@ -582,9 +633,43 @@
 (.6) Syndrome amnésique
 (.7) Trouble résiduel ou psychotique de survenue tardive
 (.8) Autres troubles mentaux et du comportement
-(.9) Trouble mental ou du comportement, sans précision
-(F20-F29) Schizophrénie, troubles schizotypiques et troubles délirants
-(F20) Schizophrénie
+(.9) Trouble mental ou du comportement, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_05_:_Troubles_mentaux_et_du_comportement</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_05_:_Troubles_mentaux_et_du_comportement</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(F20-F29) Schizophrénie, troubles schizotypiques et troubles délirants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(F20) Schizophrénie
 (F20.0) Schizophrénie paranoïde
 (F20.1) Schizophrénie hébéphrénique
 (F20.2) Schizophrénie catatonique
@@ -621,9 +706,43 @@
 (F25.8) Autres troubles schizo-affectifs
 (F25.9) Trouble schizo-affectif, sans précision
 (F28) Autres troubles psychotiques non organiques
-(F29) Psychose non organique, sans précision
-(F30-F39) Troubles de l'humeur (affectifs)
-(F30) Épisode maniaque
+(F29) Psychose non organique, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_05_:_Troubles_mentaux_et_du_comportement</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_05_:_Troubles_mentaux_et_du_comportement</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(F30-F39) Troubles de l'humeur (affectifs)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(F30) Épisode maniaque
 (F30.0) Hypomanie
 (F30.1) Manie sans symptômes psychotiques
 (F30.2) Manie avec symptômes psychotiques
@@ -664,9 +783,43 @@
 (F38.0) Autres troubles de l'humeur (affectifs) isolés
 (F38.1) Autres troubles de l'humeur (affectifs) récurrents (Dépression brève récurrente)
 (F38.8) Autres troubles de l'humeur (affectifs) précisés
-(F39) Trouble de l'humeur (affectif), sans précision
-(F40-F48) Troubles névrotiques, troubles liés à des facteurs de stress et troubles somatoformes
-(F40) Troubles anxieux phobiques
+(F39) Trouble de l'humeur (affectif), sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_05_:_Troubles_mentaux_et_du_comportement</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_05_:_Troubles_mentaux_et_du_comportement</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(F40-F48) Troubles névrotiques, troubles liés à des facteurs de stress et troubles somatoformes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(F40) Troubles anxieux phobiques
 (F40.0) Agoraphobie
 (F40.1) Phobies sociales (Anthropophobie, Névrose sociale)
 (F40.2) Phobies spécifiques (isolées) (Acrophobie, Claustrophobie, Phobie simple, Phobie des animaux)
@@ -719,9 +872,43 @@
 (F48.0) Neurasthénie
 (F48.1) Syndrome de dépersonnalisation-déréalisation
 (F48.8) Autres troubles névrotiques précisés (Psychasthénie, Syndrome de Briquet)
-(F48.9) Trouble névrotique, sans précision
-(F50-F59) Syndromes comportementaux associés à des perturbations physiologiques et à des facteurs physiques
-(F50) Troubles de l'alimentation
+(F48.9) Trouble névrotique, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_05_:_Troubles_mentaux_et_du_comportement</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_05_:_Troubles_mentaux_et_du_comportement</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(F50-F59) Syndromes comportementaux associés à des perturbations physiologiques et à des facteurs physiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(F50) Troubles de l'alimentation
 (F50.0) Anorexie mentale
 (F50.1) Anorexie mentale atypique
 (F50.2) Boulimie (bulimia nervosa)
@@ -757,9 +944,43 @@
 (F53.9) Trouble mental de la puerpéralité, sans précision
 (F54) Facteurs psychologiques ou comportementaux, associés à des maladies ou à des troubles classés ailleurs
 (F55) Abus de substances n'entraînant pas la dépendance
-(F59) Syndromes comportementaux non spécifiés associés à des perturbations physiologiques ou à des facteurs physiques
-(F60-F69) Troubles de la personnalité et du comportement chez l'adulte
-(F60) Troubles spécifiques de la personnalité
+(F59) Syndromes comportementaux non spécifiés associés à des perturbations physiologiques ou à des facteurs physiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_05_:_Troubles_mentaux_et_du_comportement</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_05_:_Troubles_mentaux_et_du_comportement</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(F60-F69) Troubles de la personnalité et du comportement chez l'adulte</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(F60) Troubles spécifiques de la personnalité
 (F60.0) Personnalité paranoïaque
 (F60.1) Personnalité schizoïde
 (F60.2) Personnalité dyssociale
@@ -818,9 +1039,43 @@
 (F68.0) Majoration de symptômes physiques pour des raisons psychologiques
 (F68.1) Production intentionnelle ou simulation de symptômes ou d'une incapacité, soit physique soit psychologique (trouble factice)
 (F68.8) Autres troubles précisés de la personnalité et du comportement chez l'adulte
-(F69) Trouble de la personnalité et du comportement chez l'adulte, sans précision
-(F70-F79) Retard mental
-(F70.-) Retard mental léger
+(F69) Trouble de la personnalité et du comportement chez l'adulte, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_05_:_Troubles_mentaux_et_du_comportement</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_05_:_Troubles_mentaux_et_du_comportement</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(F70-F79) Retard mental</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(F70.-) Retard mental léger
 (F71.-) Retard mental moyen
 (F72.-) Retard mental grave
 (F73.-) Retard mental profond
@@ -830,9 +1085,43 @@
 (.0) 	Déficience du comportement absent ou minime
 (.1) Déficience du comportement significatif, nécessitant une surveillance ou traitement
 (.8) Autres déficiences du comportement
-(.9) Sans mention d'une déficience du comportement
-(F80-F89) Troubles du développement psychologique
-(F80) Troubles spécifiques du développement de la parole et du langage
+(.9) Sans mention d'une déficience du comportement</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_05_:_Troubles_mentaux_et_du_comportement</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_05_:_Troubles_mentaux_et_du_comportement</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(F80-F89) Troubles du développement psychologique</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(F80) Troubles spécifiques du développement de la parole et du langage
 (F80.0) Trouble spécifique de l'acquisition de l'articulation (Dyslalie)
 (F80.1) Trouble de l'acquisition du langage, de type expressif (Dysphasie, Aphasie)
 (F80.2) Trouble de l'acquisition du langage, de type réceptif (Dysphasie, Aphasie réceptive)
@@ -858,9 +1147,43 @@
 (F84.8) Autres troubles envahissants du développement
 (F84.9) Trouble envahissant du développement, sans précision
 (F88) Autres troubles du développement psychologique
-(F89) Troubles du développement psychologique, sans précision
-(F90-F98) Troubles du comportement et troubles émotionnels apparaissant habituellement durant l'enfance et l'adolescence
-(F90) Troubles hyperkinétiques
+(F89) Troubles du développement psychologique, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_05_:_Troubles_mentaux_et_du_comportement</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_05_:_Troubles_mentaux_et_du_comportement</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(F90-F98) Troubles du comportement et troubles émotionnels apparaissant habituellement durant l'enfance et l'adolescence</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(F90) Troubles hyperkinétiques
 (F90.0) Perturbation de l'activité et de l'attention
 (F90.1) Trouble hyperkinétique et trouble des conduites
 (F90.8) Autres troubles hyperkinétiques
@@ -906,8 +1229,43 @@
 (F98.5) Bégaiement
 (F98.6) Bredouillement (langage précipité)
 (F98.8) Autres troubles précisés du comportement et troubles émotionnels apparaissant habituellement durant l'enfance et l'adolescence (onychophagie, onanisme)
-(F98.9) Trouble du comportement et trouble émotionnel apparaissant habituellement durant l'enfance et l'adolescence, sans précision
-(F99) Trouble mental, sans autre indication
+(F98.9) Trouble du comportement et trouble émotionnel apparaissant habituellement durant l'enfance et l'adolescence, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_05_:_Troubles_mentaux_et_du_comportement</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_05_:_Troubles_mentaux_et_du_comportement</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>(F99) Trouble mental, sans autre indication</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
  Portail de la médecine   Portail de la psychologie                    </t>
         </is>
       </c>
